--- a/data_year/zb/批发和零售业/限额以上批发业企业主要财务指标/按国民经济行业分限额以上批发业企业营业收入.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业主要财务指标/按国民经济行业分限额以上批发业企业营业收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1338 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>729.1445</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>5115.9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3749.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2379.4</v>
+      </c>
       <c r="E2" t="n">
-        <v>1002.2832</v>
+        <v>7202.8</v>
       </c>
       <c r="F2" t="n">
-        <v>143.7037</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>5443.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2400.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5380.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3935.8</v>
+      </c>
       <c r="J2" t="n">
-        <v>1214.2852</v>
+        <v>31537.8</v>
       </c>
       <c r="K2" t="n">
-        <v>1121.8149</v>
+        <v>10334.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3867.9048</v>
+        <v>9370.299999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>462.9385</v>
+        <v>15335.5</v>
       </c>
       <c r="N2" t="n">
-        <v>5209.4932</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>36247.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>116099.3</v>
+      </c>
       <c r="P2" t="n">
-        <v>838.2658</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>1959.7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11379.9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2808.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3238.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>43893.2</v>
+      </c>
       <c r="U2" t="n">
-        <v>5863.6778</v>
+        <v>17034.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6550.2768</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4710.4062</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3408.9612</v>
+      </c>
       <c r="E3" t="n">
-        <v>1205.0446</v>
+        <v>9334.0753</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7433</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>7987.8694</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3184.7713</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6528.4768</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5293.7147</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39959.9688</v>
+      </c>
       <c r="K3" t="n">
-        <v>1246.399</v>
+        <v>12841.2228</v>
       </c>
       <c r="L3" t="n">
-        <v>3528.9929</v>
+        <v>10937.8464</v>
       </c>
       <c r="M3" t="n">
-        <v>548.5633</v>
+        <v>20453.7807</v>
       </c>
       <c r="N3" t="n">
-        <v>5747.3857</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>48773.2452</v>
+      </c>
+      <c r="O3" t="n">
+        <v>154810.9416</v>
+      </c>
       <c r="P3" t="n">
-        <v>852.1469</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>2581.0617</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14550.1394</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4228.7951</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3837.8334</v>
+      </c>
+      <c r="T3" t="n">
+        <v>57748.1801</v>
+      </c>
       <c r="U3" t="n">
-        <v>5502.5188</v>
+        <v>20951.4369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6615.38029</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5658.79386</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4663.33337</v>
+      </c>
       <c r="E4" t="n">
-        <v>1415.0572</v>
+        <v>10772.63594</v>
       </c>
       <c r="F4" t="n">
-        <v>218.5861</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>8994.025519999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4686.83338</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6845.59646</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6102.84774</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37211.21924</v>
+      </c>
       <c r="K4" t="n">
-        <v>1688.8397</v>
+        <v>13326.37421</v>
       </c>
       <c r="L4" t="n">
-        <v>3589.113</v>
+        <v>12636.98387</v>
       </c>
       <c r="M4" t="n">
-        <v>597.1066</v>
+        <v>24561.69359</v>
       </c>
       <c r="N4" t="n">
-        <v>6138.1274</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>55579.62051</v>
+      </c>
+      <c r="O4" t="n">
+        <v>175700.85648</v>
+      </c>
       <c r="P4" t="n">
-        <v>932.7521</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>3314.77827</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>23199.72925</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3652.09286</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3741.16829</v>
+      </c>
+      <c r="T4" t="n">
+        <v>61232.85245</v>
+      </c>
       <c r="U4" t="n">
-        <v>5602.2855</v>
+        <v>24596.96862</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>991.47927</v>
+        <v>8007.18989</v>
       </c>
       <c r="C5" t="n">
-        <v>1288.77699</v>
+        <v>7613.73792</v>
       </c>
       <c r="D5" t="n">
-        <v>677.64549</v>
+        <v>5078.02654</v>
       </c>
       <c r="E5" t="n">
-        <v>1752.55502</v>
+        <v>13498.71412</v>
       </c>
       <c r="F5" t="n">
-        <v>458.02757</v>
+        <v>10572.94489</v>
       </c>
       <c r="G5" t="n">
-        <v>583.66378</v>
+        <v>5863.05984</v>
       </c>
       <c r="H5" t="n">
-        <v>551.1727</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>8441.05394</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7305.96971</v>
+      </c>
       <c r="J5" t="n">
-        <v>5314.1518</v>
+        <v>43692.80124</v>
       </c>
       <c r="K5" t="n">
-        <v>2032.30826</v>
+        <v>15389.51618</v>
       </c>
       <c r="L5" t="n">
-        <v>4228.27918</v>
+        <v>13935.75175</v>
       </c>
       <c r="M5" t="n">
-        <v>772.34839</v>
+        <v>29831.55029</v>
       </c>
       <c r="N5" t="n">
-        <v>6629.22204</v>
+        <v>64099.48487</v>
       </c>
       <c r="O5" t="n">
-        <v>13857.89318</v>
+        <v>215010.73403</v>
       </c>
       <c r="P5" t="n">
-        <v>634.5514899999999</v>
+        <v>4442.64733</v>
       </c>
       <c r="Q5" t="n">
-        <v>3265.7676</v>
+        <v>28631.60326</v>
       </c>
       <c r="R5" t="n">
-        <v>265.43586</v>
+        <v>3884.09888</v>
       </c>
       <c r="S5" t="n">
-        <v>730.43791</v>
+        <v>4487.33362</v>
       </c>
       <c r="T5" t="n">
-        <v>3924.76863</v>
+        <v>76716.14649</v>
       </c>
       <c r="U5" t="n">
-        <v>5905.14279</v>
+        <v>30856.59125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2144.03972</v>
+        <v>8443.10203</v>
       </c>
       <c r="C6" t="n">
-        <v>1750.22828</v>
+        <v>7918.67458</v>
       </c>
       <c r="D6" t="n">
-        <v>940.30702</v>
+        <v>6468.96683</v>
       </c>
       <c r="E6" t="n">
-        <v>2704.58033</v>
+        <v>15927.05155</v>
       </c>
       <c r="F6" t="n">
-        <v>1353.26405</v>
+        <v>11298.4033</v>
       </c>
       <c r="G6" t="n">
-        <v>965.78553</v>
+        <v>6438.94139</v>
       </c>
       <c r="H6" t="n">
-        <v>1525.5066</v>
+        <v>8595.68442</v>
       </c>
       <c r="I6" t="n">
-        <v>1870.72177</v>
+        <v>7905.47473</v>
       </c>
       <c r="J6" t="n">
-        <v>11804.12714</v>
+        <v>49407.76169</v>
       </c>
       <c r="K6" t="n">
-        <v>3493.30735</v>
+        <v>17429.78618</v>
       </c>
       <c r="L6" t="n">
-        <v>5322.73963</v>
+        <v>15080.23624</v>
       </c>
       <c r="M6" t="n">
-        <v>2288.78739</v>
+        <v>28536.50345</v>
       </c>
       <c r="N6" t="n">
-        <v>13405.68268</v>
+        <v>64317.06455</v>
       </c>
       <c r="O6" t="n">
-        <v>32024.98305</v>
+        <v>228143.255</v>
       </c>
       <c r="P6" t="n">
-        <v>818.24396</v>
+        <v>4925.11856</v>
       </c>
       <c r="Q6" t="n">
-        <v>4991.43611</v>
+        <v>31554.87826</v>
       </c>
       <c r="R6" t="n">
-        <v>1113.97995</v>
+        <v>4135.06488</v>
       </c>
       <c r="S6" t="n">
-        <v>602.47594</v>
+        <v>4843.90086</v>
       </c>
       <c r="T6" t="n">
-        <v>10383.94254</v>
+        <v>84442.31608</v>
       </c>
       <c r="U6" t="n">
-        <v>7986.00046</v>
+        <v>34647.77751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3098.83452</v>
+        <v>7653.3022</v>
       </c>
       <c r="C7" t="n">
-        <v>1719.01257</v>
+        <v>8032.0847</v>
       </c>
       <c r="D7" t="n">
-        <v>1056.69784</v>
+        <v>5590.3368</v>
       </c>
       <c r="E7" t="n">
-        <v>2930.72611</v>
+        <v>18146.1599</v>
       </c>
       <c r="F7" t="n">
-        <v>1363.8426</v>
+        <v>10755.3963</v>
       </c>
       <c r="G7" t="n">
-        <v>962.865</v>
+        <v>7191.5974</v>
       </c>
       <c r="H7" t="n">
-        <v>1571.37445</v>
+        <v>8365.791800000001</v>
       </c>
       <c r="I7" t="n">
-        <v>1911.91365</v>
+        <v>7956.2469</v>
       </c>
       <c r="J7" t="n">
-        <v>10432.80123</v>
+        <v>51714.8491</v>
       </c>
       <c r="K7" t="n">
-        <v>2966.683</v>
+        <v>18249.7303</v>
       </c>
       <c r="L7" t="n">
-        <v>5797.22461</v>
+        <v>15316.7618</v>
       </c>
       <c r="M7" t="n">
-        <v>2630.30673</v>
+        <v>23597.191</v>
       </c>
       <c r="N7" t="n">
-        <v>14806.21629</v>
+        <v>49712.6433</v>
       </c>
       <c r="O7" t="n">
-        <v>34529.83979</v>
+        <v>191489.5422</v>
       </c>
       <c r="P7" t="n">
-        <v>642.95161</v>
+        <v>5076.1167</v>
       </c>
       <c r="Q7" t="n">
-        <v>5080.69024</v>
+        <v>31748.2598</v>
       </c>
       <c r="R7" t="n">
-        <v>984.10186</v>
+        <v>4137.9508</v>
       </c>
       <c r="S7" t="n">
-        <v>683.8867</v>
+        <v>5196.2627</v>
       </c>
       <c r="T7" t="n">
-        <v>10829.76772</v>
+        <v>73305.18150000001</v>
       </c>
       <c r="U7" t="n">
-        <v>8262.6096</v>
+        <v>37309.2417</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2803.2595</v>
+        <v>7626.3811</v>
       </c>
       <c r="C8" t="n">
-        <v>1798.3389</v>
+        <v>8346.6605</v>
       </c>
       <c r="D8" t="n">
-        <v>1179.8246</v>
+        <v>4349.3925</v>
       </c>
       <c r="E8" t="n">
-        <v>3182.1526</v>
+        <v>20595.7094</v>
       </c>
       <c r="F8" t="n">
-        <v>1618.8913</v>
+        <v>11588.3697</v>
       </c>
       <c r="G8" t="n">
-        <v>1038.8038</v>
+        <v>7824.0259</v>
       </c>
       <c r="H8" t="n">
-        <v>1888.1955</v>
+        <v>9540.308000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>2407.526</v>
+        <v>7062.5074</v>
       </c>
       <c r="J8" t="n">
-        <v>11663.3831</v>
+        <v>60119.2414</v>
       </c>
       <c r="K8" t="n">
-        <v>2317.8201</v>
+        <v>21998.229</v>
       </c>
       <c r="L8" t="n">
-        <v>5944.474</v>
+        <v>14806.8304</v>
       </c>
       <c r="M8" t="n">
-        <v>2820.6655</v>
+        <v>23044.5185</v>
       </c>
       <c r="N8" t="n">
-        <v>17609.9058</v>
+        <v>50757.6482</v>
       </c>
       <c r="O8" t="n">
-        <v>40962.6646</v>
+        <v>202760.4132</v>
       </c>
       <c r="P8" t="n">
-        <v>645.8452</v>
+        <v>5538.667</v>
       </c>
       <c r="Q8" t="n">
-        <v>6069.3535</v>
+        <v>32257.8186</v>
       </c>
       <c r="R8" t="n">
-        <v>1076.7238</v>
+        <v>4686.0403</v>
       </c>
       <c r="S8" t="n">
-        <v>1413.4306</v>
+        <v>5436.5559</v>
       </c>
       <c r="T8" t="n">
-        <v>13569.2506</v>
+        <v>80948.2564</v>
       </c>
       <c r="U8" t="n">
-        <v>8793.090099999999</v>
+        <v>39614.1765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3486.98411</v>
+        <v>7587.466</v>
       </c>
       <c r="C9" t="n">
-        <v>1920.58627</v>
+        <v>8644.599</v>
       </c>
       <c r="D9" t="n">
-        <v>1428.26669</v>
+        <v>4320.633</v>
       </c>
       <c r="E9" t="n">
-        <v>3775.02286</v>
+        <v>23791.328</v>
       </c>
       <c r="F9" t="n">
-        <v>2362.12584</v>
+        <v>12736.17</v>
       </c>
       <c r="G9" t="n">
-        <v>1176.03279</v>
+        <v>8889.188</v>
       </c>
       <c r="H9" t="n">
-        <v>2484.72062</v>
+        <v>12001.153</v>
       </c>
       <c r="I9" t="n">
-        <v>2752.05985</v>
+        <v>7345.193</v>
       </c>
       <c r="J9" t="n">
-        <v>14496.41662</v>
+        <v>67942.584</v>
       </c>
       <c r="K9" t="n">
-        <v>3350.3453</v>
+        <v>24378.095</v>
       </c>
       <c r="L9" t="n">
-        <v>6418.4512</v>
+        <v>15134.756</v>
       </c>
       <c r="M9" t="n">
-        <v>4028.74063</v>
+        <v>25614.487</v>
       </c>
       <c r="N9" t="n">
-        <v>21660.94922</v>
+        <v>61622.921</v>
       </c>
       <c r="O9" t="n">
-        <v>52120.28726</v>
+        <v>247376.215</v>
       </c>
       <c r="P9" t="n">
-        <v>751.6</v>
+        <v>5992.833</v>
       </c>
       <c r="Q9" t="n">
-        <v>7001.34265</v>
+        <v>36590.23</v>
       </c>
       <c r="R9" t="n">
-        <v>1339.43469</v>
+        <v>5650.129</v>
       </c>
       <c r="S9" t="n">
-        <v>1677.62803</v>
+        <v>5296.805</v>
       </c>
       <c r="T9" t="n">
-        <v>17696.58029</v>
+        <v>103285.96</v>
       </c>
       <c r="U9" t="n">
-        <v>9786.48443</v>
+        <v>39675.229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5100.3731</v>
+        <v>7878.6</v>
       </c>
       <c r="C10" t="n">
-        <v>2742.9812</v>
+        <v>10049.1</v>
       </c>
       <c r="D10" t="n">
-        <v>2362.1179</v>
+        <v>4486.7</v>
       </c>
       <c r="E10" t="n">
-        <v>5273.0377</v>
+        <v>26108.7</v>
       </c>
       <c r="F10" t="n">
-        <v>4050.4479</v>
+        <v>15524.6</v>
       </c>
       <c r="G10" t="n">
-        <v>2019.3448</v>
+        <v>10129.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3147.0581</v>
+        <v>10476.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3495.8921</v>
+        <v>7914.2</v>
       </c>
       <c r="J10" t="n">
-        <v>23569.8162</v>
+        <v>76772.39999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>7266.0324</v>
+        <v>29995.3</v>
       </c>
       <c r="L10" t="n">
-        <v>7577.0553</v>
+        <v>15828.5</v>
       </c>
       <c r="M10" t="n">
-        <v>9761.258900000001</v>
+        <v>28982.1</v>
       </c>
       <c r="N10" t="n">
-        <v>28093.8831</v>
+        <v>69315</v>
       </c>
       <c r="O10" t="n">
-        <v>89797.35550000001</v>
+        <v>279889.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1360.9836</v>
+        <v>6392.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>9578.452600000001</v>
+        <v>42068.9</v>
       </c>
       <c r="R10" t="n">
-        <v>2095.0396</v>
+        <v>6834.9</v>
       </c>
       <c r="S10" t="n">
-        <v>3445.1004</v>
+        <v>4511.5</v>
       </c>
       <c r="T10" t="n">
-        <v>36092.8563</v>
+        <v>117458.5</v>
       </c>
       <c r="U10" t="n">
-        <v>12944.1279</v>
+        <v>41961.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3554.719</v>
+        <v>10374.5016</v>
       </c>
       <c r="C11" t="n">
-        <v>2853.03396</v>
+        <v>13073.3212</v>
       </c>
       <c r="D11" t="n">
-        <v>2147.99299</v>
+        <v>5183.5955</v>
       </c>
       <c r="E11" t="n">
-        <v>6129.11278</v>
+        <v>32067.1113</v>
       </c>
       <c r="F11" t="n">
-        <v>4037.0026</v>
+        <v>21017.2837</v>
       </c>
       <c r="G11" t="n">
-        <v>1784.97015</v>
+        <v>11676.0344</v>
       </c>
       <c r="H11" t="n">
-        <v>3855.92422</v>
+        <v>12197.0933</v>
       </c>
       <c r="I11" t="n">
-        <v>3326.23175</v>
+        <v>8733.195900000001</v>
       </c>
       <c r="J11" t="n">
-        <v>22910.06406</v>
+        <v>86064.13529999999</v>
       </c>
       <c r="K11" t="n">
-        <v>6774.94364</v>
+        <v>32644.3502</v>
       </c>
       <c r="L11" t="n">
-        <v>8403.61469</v>
+        <v>16758.3047</v>
       </c>
       <c r="M11" t="n">
-        <v>9579.229380000001</v>
+        <v>35762.6516</v>
       </c>
       <c r="N11" t="n">
-        <v>26733.2643</v>
+        <v>67542.31939999999</v>
       </c>
       <c r="O11" t="n">
-        <v>79996.11822999999</v>
+        <v>332722.5919</v>
       </c>
       <c r="P11" t="n">
-        <v>1390.3047</v>
+        <v>7837.1814</v>
       </c>
       <c r="Q11" t="n">
-        <v>9049.5224</v>
+        <v>49142.3068</v>
       </c>
       <c r="R11" t="n">
-        <v>2265.14856</v>
+        <v>7252.9002</v>
       </c>
       <c r="S11" t="n">
-        <v>2736.06654</v>
+        <v>5071.1277</v>
       </c>
       <c r="T11" t="n">
-        <v>29240.08532</v>
+        <v>152112.9249</v>
       </c>
       <c r="U11" t="n">
-        <v>13940.40887</v>
+        <v>49101.8431</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5115.9</v>
+        <v>13080.1612</v>
       </c>
       <c r="C12" t="n">
-        <v>3749.8</v>
+        <v>17080.3285</v>
       </c>
       <c r="D12" t="n">
-        <v>2379.4</v>
+        <v>5302.3005</v>
       </c>
       <c r="E12" t="n">
-        <v>7202.8</v>
+        <v>33831.0333</v>
       </c>
       <c r="F12" t="n">
-        <v>5443.4</v>
+        <v>24552.0582</v>
       </c>
       <c r="G12" t="n">
-        <v>2400.1</v>
+        <v>12302.8574</v>
       </c>
       <c r="H12" t="n">
-        <v>5380.3</v>
+        <v>12701.3411</v>
       </c>
       <c r="I12" t="n">
-        <v>3935.8</v>
+        <v>8506.5862</v>
       </c>
       <c r="J12" t="n">
-        <v>31537.8</v>
+        <v>95703.8947</v>
       </c>
       <c r="K12" t="n">
-        <v>10334.2</v>
+        <v>33764.8311</v>
       </c>
       <c r="L12" t="n">
-        <v>9370.299999999999</v>
+        <v>17622.1495</v>
       </c>
       <c r="M12" t="n">
-        <v>15335.5</v>
+        <v>39925.0657</v>
       </c>
       <c r="N12" t="n">
-        <v>36247.7</v>
+        <v>60198.2407</v>
       </c>
       <c r="O12" t="n">
-        <v>116099.3</v>
+        <v>374661.0361</v>
       </c>
       <c r="P12" t="n">
-        <v>1959.7</v>
+        <v>9134.247600000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>11379.9</v>
+        <v>51590.8957</v>
       </c>
       <c r="R12" t="n">
-        <v>2808.2</v>
+        <v>10439.938</v>
       </c>
       <c r="S12" t="n">
-        <v>3238.5</v>
+        <v>5186.8114</v>
       </c>
       <c r="T12" t="n">
-        <v>43893.2</v>
+        <v>184879.769</v>
       </c>
       <c r="U12" t="n">
-        <v>17034.8</v>
+        <v>55444.0052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6550.2768</v>
+        <v>16610.8326</v>
       </c>
       <c r="C13" t="n">
-        <v>4710.4062</v>
+        <v>22952.6044</v>
       </c>
       <c r="D13" t="n">
-        <v>3408.9612</v>
+        <v>6486.1487</v>
       </c>
       <c r="E13" t="n">
-        <v>9334.0753</v>
+        <v>38878.9855</v>
       </c>
       <c r="F13" t="n">
-        <v>7987.8694</v>
+        <v>31515.4513</v>
       </c>
       <c r="G13" t="n">
-        <v>3184.7713</v>
+        <v>15664.5747</v>
       </c>
       <c r="H13" t="n">
-        <v>6528.4768</v>
+        <v>15208.5642</v>
       </c>
       <c r="I13" t="n">
-        <v>5293.7147</v>
+        <v>10057.6571</v>
       </c>
       <c r="J13" t="n">
-        <v>39959.9688</v>
+        <v>111693.4639</v>
       </c>
       <c r="K13" t="n">
-        <v>12841.2228</v>
+        <v>37419.1645</v>
       </c>
       <c r="L13" t="n">
-        <v>10937.8464</v>
+        <v>18261.6596</v>
       </c>
       <c r="M13" t="n">
-        <v>20453.7807</v>
+        <v>64510.1341</v>
       </c>
       <c r="N13" t="n">
-        <v>48773.2452</v>
+        <v>80304.31359999999</v>
       </c>
       <c r="O13" t="n">
-        <v>154810.9416</v>
+        <v>518333.8534</v>
       </c>
       <c r="P13" t="n">
-        <v>2581.0617</v>
+        <v>11269.0807</v>
       </c>
       <c r="Q13" t="n">
-        <v>14550.1394</v>
+        <v>62078.8427</v>
       </c>
       <c r="R13" t="n">
-        <v>4228.7951</v>
+        <v>13862.5134</v>
       </c>
       <c r="S13" t="n">
-        <v>3837.8334</v>
+        <v>5621.5992</v>
       </c>
       <c r="T13" t="n">
-        <v>57748.1801</v>
+        <v>251673.1507</v>
       </c>
       <c r="U13" t="n">
-        <v>20951.4369</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6615.38029</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5658.79386</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4663.33337</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10772.63594</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8994.025519999999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4686.83338</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6845.59646</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6102.84774</v>
-      </c>
-      <c r="J14" t="n">
-        <v>37211.21924</v>
-      </c>
-      <c r="K14" t="n">
-        <v>13326.37421</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12636.98387</v>
-      </c>
-      <c r="M14" t="n">
-        <v>24561.69359</v>
-      </c>
-      <c r="N14" t="n">
-        <v>55579.62051</v>
-      </c>
-      <c r="O14" t="n">
-        <v>175700.85648</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3314.77827</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>23199.72925</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3652.09286</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3741.16829</v>
-      </c>
-      <c r="T14" t="n">
-        <v>61232.85245</v>
-      </c>
-      <c r="U14" t="n">
-        <v>24596.96862</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8007.18989</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7613.73792</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5078.02654</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13498.71412</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10572.94489</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5863.05984</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8441.05394</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7305.96971</v>
-      </c>
-      <c r="J15" t="n">
-        <v>43692.80124</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15389.51618</v>
-      </c>
-      <c r="L15" t="n">
-        <v>13935.75175</v>
-      </c>
-      <c r="M15" t="n">
-        <v>29831.55029</v>
-      </c>
-      <c r="N15" t="n">
-        <v>64099.48487</v>
-      </c>
-      <c r="O15" t="n">
-        <v>215010.73403</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4442.64733</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>28631.60326</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3884.09888</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4487.33362</v>
-      </c>
-      <c r="T15" t="n">
-        <v>76716.14649</v>
-      </c>
-      <c r="U15" t="n">
-        <v>30856.59125</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8443.10203</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7918.67458</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6468.96683</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15927.05155</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11298.4033</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6438.94139</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8595.68442</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7905.47473</v>
-      </c>
-      <c r="J16" t="n">
-        <v>49407.76169</v>
-      </c>
-      <c r="K16" t="n">
-        <v>17429.78618</v>
-      </c>
-      <c r="L16" t="n">
-        <v>15080.23624</v>
-      </c>
-      <c r="M16" t="n">
-        <v>28536.50345</v>
-      </c>
-      <c r="N16" t="n">
-        <v>64317.06455</v>
-      </c>
-      <c r="O16" t="n">
-        <v>228143.255</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4925.11856</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>31554.87826</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4135.06488</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4843.90086</v>
-      </c>
-      <c r="T16" t="n">
-        <v>84442.31608</v>
-      </c>
-      <c r="U16" t="n">
-        <v>34647.77751</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7653.3022</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8032.0847</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5590.3368</v>
-      </c>
-      <c r="E17" t="n">
-        <v>18146.1599</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10755.3963</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7191.5974</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8365.791800000001</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7956.2469</v>
-      </c>
-      <c r="J17" t="n">
-        <v>51714.8491</v>
-      </c>
-      <c r="K17" t="n">
-        <v>18249.7303</v>
-      </c>
-      <c r="L17" t="n">
-        <v>15316.7618</v>
-      </c>
-      <c r="M17" t="n">
-        <v>23597.191</v>
-      </c>
-      <c r="N17" t="n">
-        <v>49712.6433</v>
-      </c>
-      <c r="O17" t="n">
-        <v>191489.5422</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5076.1167</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>31748.2598</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4137.9508</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5196.2627</v>
-      </c>
-      <c r="T17" t="n">
-        <v>73305.18150000001</v>
-      </c>
-      <c r="U17" t="n">
-        <v>37309.2417</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7626.3811</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8346.6605</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4349.3925</v>
-      </c>
-      <c r="E18" t="n">
-        <v>20595.7094</v>
-      </c>
-      <c r="F18" t="n">
-        <v>11588.3697</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7824.0259</v>
-      </c>
-      <c r="H18" t="n">
-        <v>9540.308000000001</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7062.5074</v>
-      </c>
-      <c r="J18" t="n">
-        <v>60119.2414</v>
-      </c>
-      <c r="K18" t="n">
-        <v>21998.229</v>
-      </c>
-      <c r="L18" t="n">
-        <v>14806.8304</v>
-      </c>
-      <c r="M18" t="n">
-        <v>23044.5185</v>
-      </c>
-      <c r="N18" t="n">
-        <v>50757.6482</v>
-      </c>
-      <c r="O18" t="n">
-        <v>202760.4132</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5538.667</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>32257.8186</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4686.0403</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5436.5559</v>
-      </c>
-      <c r="T18" t="n">
-        <v>80948.2564</v>
-      </c>
-      <c r="U18" t="n">
-        <v>39614.1765</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7587.466</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8644.599</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4320.633</v>
-      </c>
-      <c r="E19" t="n">
-        <v>23791.328</v>
-      </c>
-      <c r="F19" t="n">
-        <v>12736.17</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8889.188</v>
-      </c>
-      <c r="H19" t="n">
-        <v>12001.153</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7345.193</v>
-      </c>
-      <c r="J19" t="n">
-        <v>67942.584</v>
-      </c>
-      <c r="K19" t="n">
-        <v>24378.095</v>
-      </c>
-      <c r="L19" t="n">
-        <v>15134.756</v>
-      </c>
-      <c r="M19" t="n">
-        <v>25614.487</v>
-      </c>
-      <c r="N19" t="n">
-        <v>61622.921</v>
-      </c>
-      <c r="O19" t="n">
-        <v>247376.215</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5992.833</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>36590.23</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5650.129</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5296.805</v>
-      </c>
-      <c r="T19" t="n">
-        <v>103285.96</v>
-      </c>
-      <c r="U19" t="n">
-        <v>39675.229</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7878.6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10049.1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4486.7</v>
-      </c>
-      <c r="E20" t="n">
-        <v>26108.7</v>
-      </c>
-      <c r="F20" t="n">
-        <v>15524.6</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10129.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10476.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7914.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>76772.39999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>29995.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>15828.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>28982.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>69315</v>
-      </c>
-      <c r="O20" t="n">
-        <v>279889.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>6392.2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>42068.9</v>
-      </c>
-      <c r="R20" t="n">
-        <v>6834.9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4511.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>117458.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>41961.6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10374.5016</v>
-      </c>
-      <c r="C21" t="n">
-        <v>13073.3212</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5183.5955</v>
-      </c>
-      <c r="E21" t="n">
-        <v>32067.1113</v>
-      </c>
-      <c r="F21" t="n">
-        <v>21017.2837</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11676.0344</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12197.0933</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8733.195900000001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>86064.13529999999</v>
-      </c>
-      <c r="K21" t="n">
-        <v>32644.3502</v>
-      </c>
-      <c r="L21" t="n">
-        <v>16758.3047</v>
-      </c>
-      <c r="M21" t="n">
-        <v>35762.6516</v>
-      </c>
-      <c r="N21" t="n">
-        <v>67542.31939999999</v>
-      </c>
-      <c r="O21" t="n">
-        <v>332722.5919</v>
-      </c>
-      <c r="P21" t="n">
-        <v>7837.1814</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>49142.3068</v>
-      </c>
-      <c r="R21" t="n">
-        <v>7252.9002</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5071.1277</v>
-      </c>
-      <c r="T21" t="n">
-        <v>152112.9249</v>
-      </c>
-      <c r="U21" t="n">
-        <v>49101.8431</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>13080.1612</v>
-      </c>
-      <c r="C22" t="n">
-        <v>17080.3285</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5302.3005</v>
-      </c>
-      <c r="E22" t="n">
-        <v>33831.0333</v>
-      </c>
-      <c r="F22" t="n">
-        <v>24552.0582</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12302.8574</v>
-      </c>
-      <c r="H22" t="n">
-        <v>12701.3411</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8506.5862</v>
-      </c>
-      <c r="J22" t="n">
-        <v>95703.8947</v>
-      </c>
-      <c r="K22" t="n">
-        <v>33764.8311</v>
-      </c>
-      <c r="L22" t="n">
-        <v>17622.1495</v>
-      </c>
-      <c r="M22" t="n">
-        <v>39925.0657</v>
-      </c>
-      <c r="N22" t="n">
-        <v>60198.2407</v>
-      </c>
-      <c r="O22" t="n">
-        <v>374661.0361</v>
-      </c>
-      <c r="P22" t="n">
-        <v>9134.247600000001</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>51590.8957</v>
-      </c>
-      <c r="R22" t="n">
-        <v>10439.938</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5186.8114</v>
-      </c>
-      <c r="T22" t="n">
-        <v>184879.769</v>
-      </c>
-      <c r="U22" t="n">
-        <v>55444.0052</v>
+        <v>65651.1124</v>
       </c>
     </row>
   </sheetData>
